--- a/Definicion y administracion de requerimientos de software/bitacoras/PDbitacoraLA.xlsx
+++ b/Definicion y administracion de requerimientos de software/bitacoras/PDbitacoraLA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador.ASUS-SANTIAGO\Desktop\Plantillas\METFOR\Definicion y administracion de requerimientos de software\bitacoras\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22908" windowHeight="9024" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -155,25 +155,25 @@
     <t>Revisión de la especificación de requerimientos del software</t>
   </si>
   <si>
-    <t>Entrega de todos los documentos finales al líder de soporte.</t>
-  </si>
-  <si>
-    <t>Hacer bitácoras de tiempos.</t>
-  </si>
-  <si>
     <t>Elaborar Escenario de calidad</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t> Definición y administración de requerimientos de software</t>
+  </si>
+  <si>
+    <t>Elaborar Caso de uso moficicar punto de venta</t>
+  </si>
+  <si>
+    <t>Elaborar Caso de uso Registro de usuario</t>
+  </si>
+  <si>
+    <t>Elaborar Caso de uso Inicio de sesión.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
@@ -532,8 +532,36 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Texto explicativo" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{47EE5DED-848E-4B68-8DF9-D641E86A2CC0}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -958,27 +986,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK60"/>
+  <dimension ref="A1:AMK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="10.5703125" style="1"/>
-    <col min="3" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="18.28515625" style="1"/>
-    <col min="6" max="6" width="51.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="10.5546875" style="1"/>
+    <col min="3" max="4" width="11.44140625" style="1"/>
+    <col min="5" max="5" width="18.33203125" style="1"/>
+    <col min="6" max="6" width="51.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="1"/>
     <col min="8" max="8" width="38" style="1"/>
-    <col min="9" max="9" width="8.42578125" style="1"/>
-    <col min="10" max="10" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="1025" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="8.44140625" style="1"/>
+    <col min="10" max="10" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="1025" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
@@ -989,7 +1017,7 @@
       <c r="I1"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -1002,7 +1030,7 @@
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3"/>
       <c r="C3" s="3"/>
       <c r="D3"/>
@@ -1013,7 +1041,7 @@
       <c r="I3"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4"/>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -1026,7 +1054,7 @@
       <c r="I4"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -1037,7 +1065,7 @@
       <c r="I5"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6"/>
       <c r="C6" s="2" t="s">
         <v>2</v>
@@ -1050,7 +1078,7 @@
       <c r="I6" s="4"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -1061,7 +1089,7 @@
       <c r="I7"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8"/>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -1074,7 +1102,7 @@
       <c r="I8"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -1085,7 +1113,7 @@
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10"/>
       <c r="C10" s="5" t="s">
         <v>4</v>
@@ -1100,7 +1128,7 @@
       <c r="I10" s="7"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11"/>
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
@@ -1111,13 +1139,13 @@
       <c r="I11" s="7"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12"/>
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12"/>
@@ -1126,7 +1154,7 @@
       <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -1137,7 +1165,7 @@
       <c r="I13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="29" t="s">
         <v>8</v>
       </c>
@@ -1166,7 +1194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="29"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -1177,7 +1205,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="28"/>
     </row>
-    <row r="16" spans="2:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="24">
         <v>43148</v>
       </c>
@@ -1191,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>17</v>
@@ -1206,56 +1234,56 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="24">
         <v>43151</v>
       </c>
       <c r="C17" s="25">
-        <v>0.95833333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D17" s="25">
-        <v>0.97222222222222221</v>
+        <v>0.92361111111111116</v>
       </c>
       <c r="E17" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>18</v>
       </c>
       <c r="J17" s="26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="24">
         <v>43151</v>
       </c>
       <c r="C18" s="25">
-        <v>0.97222222222222221</v>
+        <v>0.92361111111111116</v>
       </c>
       <c r="D18" s="25">
-        <v>0.97916666666666663</v>
+        <v>0.93055555555555547</v>
       </c>
       <c r="E18" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>18</v>
@@ -1264,203 +1292,203 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B19" s="24">
         <v>43151</v>
       </c>
       <c r="C19" s="25">
-        <v>0.97916666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D19" s="25">
-        <v>0.98611111111111116</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="E19" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="24.75" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="24">
         <v>43151</v>
       </c>
       <c r="C20" s="25">
-        <v>0.4861111111111111</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="D20" s="25">
-        <v>0</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="E20" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="24.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="24">
         <v>43151</v>
       </c>
       <c r="C21" s="25">
-        <v>6.9444444444444441E-3</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="D21" s="25">
-        <v>2.0833333333333332E-2</v>
+        <v>0.98611111111111116</v>
       </c>
       <c r="E21" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>18</v>
       </c>
       <c r="J21" s="26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="24.75" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B22" s="24">
         <v>43151</v>
       </c>
       <c r="C22" s="25">
-        <v>2.7777777777777776E-2</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D22" s="25">
-        <v>3.8194444444444441E-2</v>
+        <v>0</v>
       </c>
       <c r="E22" s="9">
         <v>0</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>18</v>
       </c>
       <c r="J22" s="26">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="24.75" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B23" s="24">
-        <v>43152</v>
+        <v>43151</v>
       </c>
       <c r="C23" s="25">
-        <v>4.1666666666666664E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="D23" s="25">
-        <v>4.8611111111111112E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E23" s="9">
         <v>0</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>18</v>
       </c>
       <c r="J23" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B24" s="24">
-        <v>43152</v>
+        <v>43151</v>
       </c>
       <c r="C24" s="25">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D24" s="25">
         <v>3.8194444444444441E-2</v>
       </c>
-      <c r="D24" s="25">
-        <v>4.3750000000000004E-2</v>
-      </c>
-      <c r="E24" s="12">
-        <v>3</v>
+      <c r="E24" s="9">
+        <v>0</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="J24" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="13"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="26"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -1471,7 +1499,7 @@
       <c r="I27" s="13"/>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -1482,7 +1510,7 @@
       <c r="I28" s="13"/>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -1493,7 +1521,7 @@
       <c r="I29" s="13"/>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -1504,7 +1532,7 @@
       <c r="I30" s="13"/>
       <c r="J30" s="14"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -1515,7 +1543,7 @@
       <c r="I31" s="13"/>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -1526,7 +1554,7 @@
       <c r="I32" s="13"/>
       <c r="J32" s="14"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -1537,7 +1565,7 @@
       <c r="I33" s="13"/>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -1548,7 +1576,7 @@
       <c r="I34" s="13"/>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="15"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -1559,7 +1587,7 @@
       <c r="I35" s="13"/>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -1570,7 +1598,7 @@
       <c r="I36" s="13"/>
       <c r="J36" s="14"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="15"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -1581,7 +1609,7 @@
       <c r="I37" s="13"/>
       <c r="J37" s="14"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="15"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -1592,7 +1620,7 @@
       <c r="I38" s="13"/>
       <c r="J38" s="14"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="15"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -1603,7 +1631,7 @@
       <c r="I39" s="13"/>
       <c r="J39" s="14"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="15"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
@@ -1614,7 +1642,7 @@
       <c r="I40" s="13"/>
       <c r="J40" s="14"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="15"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -1625,7 +1653,7 @@
       <c r="I41" s="13"/>
       <c r="J41" s="14"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="15"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -1636,7 +1664,7 @@
       <c r="I42" s="13"/>
       <c r="J42" s="14"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="15"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -1647,7 +1675,7 @@
       <c r="I43" s="13"/>
       <c r="J43" s="14"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="15"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -1658,7 +1686,7 @@
       <c r="I44" s="13"/>
       <c r="J44" s="14"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="15"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -1669,7 +1697,7 @@
       <c r="I45" s="13"/>
       <c r="J45" s="14"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="15"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -1680,7 +1708,7 @@
       <c r="I46" s="13"/>
       <c r="J46" s="14"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="15"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -1691,7 +1719,7 @@
       <c r="I47" s="13"/>
       <c r="J47" s="14"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="15"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -1702,7 +1730,7 @@
       <c r="I48" s="13"/>
       <c r="J48" s="14"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="15"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
@@ -1713,7 +1741,7 @@
       <c r="I49" s="13"/>
       <c r="J49" s="14"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" s="15"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
@@ -1724,7 +1752,7 @@
       <c r="I50" s="13"/>
       <c r="J50" s="14"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="15"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
@@ -1735,7 +1763,7 @@
       <c r="I51" s="13"/>
       <c r="J51" s="14"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="15"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
@@ -1746,7 +1774,7 @@
       <c r="I52" s="13"/>
       <c r="J52" s="14"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" s="15"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
@@ -1757,7 +1785,7 @@
       <c r="I53" s="13"/>
       <c r="J53" s="14"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="15"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
@@ -1768,7 +1796,7 @@
       <c r="I54" s="13"/>
       <c r="J54" s="14"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="15"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
@@ -1779,7 +1807,7 @@
       <c r="I55" s="13"/>
       <c r="J55" s="14"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" s="15"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
@@ -1790,7 +1818,7 @@
       <c r="I56" s="13"/>
       <c r="J56" s="14"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
@@ -1801,7 +1829,7 @@
       <c r="I57" s="13"/>
       <c r="J57" s="14"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
@@ -1812,7 +1840,7 @@
       <c r="I58" s="13"/>
       <c r="J58" s="14"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
@@ -1823,16 +1851,38 @@
       <c r="I59" s="13"/>
       <c r="J59" s="14"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="17"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B60" s="15"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="14"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B61" s="15"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="14"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1860,18 +1910,18 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125"/>
-    <col min="2" max="2" width="7.28515625"/>
-    <col min="3" max="3" width="10.5703125"/>
-    <col min="4" max="4" width="23.7109375"/>
-    <col min="5" max="5" width="18.140625"/>
-    <col min="6" max="7" width="12.7109375"/>
-    <col min="8" max="1025" width="10.5703125"/>
+    <col min="1" max="1" width="10.5546875"/>
+    <col min="2" max="2" width="7.33203125"/>
+    <col min="3" max="3" width="10.5546875"/>
+    <col min="4" max="4" width="23.6640625"/>
+    <col min="5" max="5" width="18.109375"/>
+    <col min="6" max="7" width="12.6640625"/>
+    <col min="8" max="1025" width="10.5546875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="33" t="s">
         <v>22</v>
       </c>
@@ -1881,7 +1931,7 @@
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
@@ -1889,7 +1939,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
@@ -1897,7 +1947,7 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
@@ -1905,7 +1955,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -1913,7 +1963,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
@@ -1921,7 +1971,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
         <v>23</v>
       </c>
@@ -1931,7 +1981,7 @@
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
@@ -1939,7 +1989,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -1947,7 +1997,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
@@ -1955,7 +2005,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
@@ -1963,7 +2013,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
@@ -1971,7 +2021,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="33" t="s">
         <v>24</v>
       </c>
@@ -1981,7 +2031,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
@@ -1989,7 +2039,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
@@ -1997,7 +2047,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
@@ -2005,7 +2055,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
@@ -2013,7 +2063,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
@@ -2021,7 +2071,7 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="33" t="s">
         <v>25</v>
       </c>
@@ -2031,7 +2081,7 @@
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
         <v>26</v>
       </c>
@@ -2051,7 +2101,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -2059,7 +2109,7 @@
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -2067,7 +2117,7 @@
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -2075,7 +2125,7 @@
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -2083,7 +2133,7 @@
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -2091,7 +2141,7 @@
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -2099,7 +2149,7 @@
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
@@ -2107,7 +2157,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -2115,7 +2165,7 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -2123,7 +2173,7 @@
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
@@ -2131,7 +2181,7 @@
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
@@ -2139,7 +2189,7 @@
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -2147,7 +2197,7 @@
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -2155,7 +2205,7 @@
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="33" t="s">
         <v>32</v>
       </c>
@@ -2165,7 +2215,7 @@
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
@@ -2173,7 +2223,7 @@
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
@@ -2181,7 +2231,7 @@
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
@@ -2189,7 +2239,7 @@
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
@@ -2197,7 +2247,7 @@
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
@@ -2205,7 +2255,7 @@
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
@@ -2213,7 +2263,7 @@
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="33" t="s">
         <v>33</v>
       </c>
@@ -2223,7 +2273,7 @@
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
@@ -2231,7 +2281,7 @@
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
@@ -2239,7 +2289,7 @@
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
@@ -2247,7 +2297,7 @@
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
@@ -2255,7 +2305,7 @@
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
       <c r="D47" s="32"/>
@@ -2263,7 +2313,7 @@
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="33" t="s">
         <v>34</v>
       </c>
@@ -2273,7 +2323,7 @@
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="34" t="s">
         <v>35</v>
       </c>
@@ -2287,7 +2337,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
@@ -2295,7 +2345,7 @@
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
@@ -2303,7 +2353,7 @@
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
@@ -2311,7 +2361,7 @@
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
@@ -2319,7 +2369,7 @@
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
@@ -2327,7 +2377,7 @@
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
